--- a/results/pvalue_SIDER_all_Chem_AUROC.xlsx
+++ b/results/pvalue_SIDER_all_Chem_AUROC.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.391</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.031</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9.42</t>
+          <t>0.962</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9.166</t>
+          <t>-8.213</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.77</t>
+          <t>3.019</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>9.384</t>
+          <t>-3.249</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.561</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-0.634</t>
+          <t>39.955</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
